--- a/mapping/main_lists.xlsx
+++ b/mapping/main_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80028806-CC0B-4862-A02F-FF11A4B9384C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF88BF-50A0-450C-AD73-3387D6E32104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,9 +1888,6 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>brick</t>
-  </si>
-  <si>
     <t>Fortibone 10 sachet x11.7 gm</t>
   </si>
   <si>
@@ -1997,6 +1994,9 @@
   </si>
   <si>
     <t>atc4</t>
+  </si>
+  <si>
+    <t>bricks</t>
   </si>
 </sst>
 </file>
@@ -2032,9 +2032,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,7 +2317,7 @@
   <dimension ref="A1:A620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -5442,7 +5441,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -5452,187 +5451,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" t="s">
         <v>649</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>650</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>651</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>652</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>653</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>654</v>
       </c>
-      <c r="G1" t="s">
-        <v>655</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>6225000366459</v>
       </c>
       <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
         <v>620</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>621</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F2" t="s">
         <v>622</v>
       </c>
-      <c r="E2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>623</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6225000366473</v>
+      </c>
+      <c r="B3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>6225000366473</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>625</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>626</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" t="s">
         <v>627</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6225000366466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4" t="s">
         <v>626</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F4" t="s">
+        <v>627</v>
+      </c>
+      <c r="G4" t="s">
         <v>628</v>
       </c>
-      <c r="G3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>6225000366466</v>
-      </c>
-      <c r="B4" t="s">
-        <v>630</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6225000366480</v>
+      </c>
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E5" t="s">
         <v>631</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F5" t="s">
         <v>627</v>
       </c>
-      <c r="E4" t="s">
-        <v>632</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>628</v>
       </c>
-      <c r="G4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>6225000366480</v>
-      </c>
-      <c r="B5" t="s">
-        <v>633</v>
-      </c>
-      <c r="C5" t="s">
-        <v>634</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6224011259019</v>
+      </c>
+      <c r="B6" t="s">
         <v>635</v>
       </c>
-      <c r="E5" t="s">
-        <v>632</v>
-      </c>
-      <c r="F5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6224011259019</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>636</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>637</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F6" t="s">
         <v>638</v>
       </c>
-      <c r="E6" t="s">
-        <v>637</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>639</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6225000366435</v>
+      </c>
+      <c r="B7" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6225000366435</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>641</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>642</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F7" t="s">
         <v>643</v>
       </c>
-      <c r="E7" t="s">
-        <v>642</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>644</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6225000366442</v>
+      </c>
+      <c r="B8" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6225000366442</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>646</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>647</v>
       </c>
-      <c r="D8" t="s">
-        <v>648</v>
-      </c>
       <c r="E8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F8" t="s">
+        <v>643</v>
+      </c>
+      <c r="G8" t="s">
         <v>644</v>
-      </c>
-      <c r="G8" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
